--- a/data/trans_orig/P1408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>92622</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74568</v>
+        <v>75898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112337</v>
+        <v>110667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08977408975763201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07227505616740643</v>
+        <v>0.0735644688425988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1088825628639388</v>
+        <v>0.1072645622437443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -765,19 +765,19 @@
         <v>61401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47201</v>
+        <v>47640</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76798</v>
+        <v>78112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04668869193900252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03589092809646242</v>
+        <v>0.03622521208345454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.058396737082632</v>
+        <v>0.05939567964668249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -786,19 +786,19 @@
         <v>154023</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133093</v>
+        <v>130993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179723</v>
+        <v>181583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06563002358716293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05671160901051031</v>
+        <v>0.05581697569076475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07658080557060176</v>
+        <v>0.07737360039490891</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>939101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>919386</v>
+        <v>921056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>957155</v>
+        <v>955825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.910225910242368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8911174371360612</v>
+        <v>0.8927354377562556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9277249438325935</v>
+        <v>0.9264355311574011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1232</v>
@@ -836,19 +836,19 @@
         <v>1253712</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1238315</v>
+        <v>1237001</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1267912</v>
+        <v>1267473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9533113080609975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9416032629173681</v>
+        <v>0.9406043203533179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9641090719035376</v>
+        <v>0.9637747879165456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2175</v>
@@ -857,19 +857,19 @@
         <v>2192812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2167112</v>
+        <v>2165252</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2213742</v>
+        <v>2215842</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.934369976412837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.923419194429398</v>
+        <v>0.9226263996050906</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9432883909894896</v>
+        <v>0.9441830243092344</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>36160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25052</v>
+        <v>25149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49811</v>
+        <v>49313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0213532672689519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01479375414951161</v>
+        <v>0.01485083722504144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02941480318983772</v>
+        <v>0.02912058961750976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>24590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16003</v>
+        <v>16147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36003</v>
+        <v>37582</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0154880246744393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0100797760494012</v>
+        <v>0.01017030910275965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02267632970706967</v>
+        <v>0.0236709271443252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1003,19 +1003,19 @@
         <v>60750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46474</v>
+        <v>45850</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77380</v>
+        <v>77297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01851515552153828</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01416428245247339</v>
+        <v>0.01397392092565789</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02358376154144217</v>
+        <v>0.0235585008176887</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1657253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1643602</v>
+        <v>1644100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1668361</v>
+        <v>1668264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9786467327310481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9705851968101621</v>
+        <v>0.9708794103824903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9852062458504883</v>
+        <v>0.9851491627749588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1530</v>
@@ -1053,19 +1053,19 @@
         <v>1563083</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1551670</v>
+        <v>1550091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1571670</v>
+        <v>1571526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9845119753255607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9773236702929303</v>
+        <v>0.9763290728556748</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9899202239505989</v>
+        <v>0.9898296908972404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3143</v>
@@ -1074,19 +1074,19 @@
         <v>3220336</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3203706</v>
+        <v>3203789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3234612</v>
+        <v>3235236</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9814848444784617</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9764162384585579</v>
+        <v>0.9764414991823115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9858357175475266</v>
+        <v>0.9860260790743421</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2854</v>
+        <v>3260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14835</v>
+        <v>15407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01312552681293175</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005175456608664281</v>
+        <v>0.005912237325526172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02690350560147161</v>
+        <v>0.0279416684250944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>5544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1979</v>
+        <v>1854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12169</v>
+        <v>11734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01163617124330208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004153068270022508</v>
+        <v>0.003892136047083581</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02554378476565729</v>
+        <v>0.02462999664726625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6863</v>
+        <v>7253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23288</v>
+        <v>21863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01243518548882915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00667684134835302</v>
+        <v>0.007056762305383961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02265806885085885</v>
+        <v>0.02127110204717463</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>544170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>536573</v>
+        <v>536001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548554</v>
+        <v>548148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9868744731870682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9730964943985285</v>
+        <v>0.9720583315749056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948245433913357</v>
+        <v>0.9940877626744739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>447</v>
@@ -1270,19 +1270,19 @@
         <v>470868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464243</v>
+        <v>464678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>474433</v>
+        <v>474558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9883638287566979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9744562152343426</v>
+        <v>0.9753700033527336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9958469317299775</v>
+        <v>0.9961078639529164</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>967</v>
@@ -1291,19 +1291,19 @@
         <v>1015039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1004532</v>
+        <v>1005957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1020957</v>
+        <v>1020567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9875648145111708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9773419311491413</v>
+        <v>0.978728897952825</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993323158651647</v>
+        <v>0.992943237694616</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>136019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04151307503473621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1416,19 +1416,19 @@
         <v>91534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02708762067688475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>226</v>
@@ -1437,19 +1437,19 @@
         <v>227554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03418910325589091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3140524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3118892</v>
+        <v>3116855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3160913</v>
+        <v>3160434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9584869249652638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9518849025316413</v>
+        <v>0.9512632967474519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9647098248739331</v>
+        <v>0.9645634445557084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3209</v>
@@ -1487,19 +1487,19 @@
         <v>3287663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3266325</v>
+        <v>3266818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3304540</v>
+        <v>3305265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9729123793231153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9665978825856328</v>
+        <v>0.9667439102044547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9779067460738338</v>
+        <v>0.9781213286809275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6285</v>
@@ -1508,19 +1508,19 @@
         <v>6428187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6397484</v>
+        <v>6398298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6456088</v>
+        <v>6454835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9658108967441091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9611977940801302</v>
+        <v>0.9613201413671714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9700029346587679</v>
+        <v>0.9698146900745751</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>50172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37688</v>
+        <v>37810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65150</v>
+        <v>64724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05147775457632152</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03866878734844473</v>
+        <v>0.03879405380229573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06684514641238565</v>
+        <v>0.06640753037129048</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -1872,19 +1872,19 @@
         <v>31341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21799</v>
+        <v>22192</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42379</v>
+        <v>42306</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02344801535633198</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01630929650144042</v>
+        <v>0.01660351422400295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0317065587618748</v>
+        <v>0.03165130175653653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -1893,19 +1893,19 @@
         <v>81513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65764</v>
+        <v>65440</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98913</v>
+        <v>100897</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03526798694165146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02845393399185179</v>
+        <v>0.02831378003969667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04279628868367113</v>
+        <v>0.0436546451603226</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>924471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>909493</v>
+        <v>909919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>936955</v>
+        <v>936833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9485222454236785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9331548535876145</v>
+        <v>0.9335924696287096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9613312126515553</v>
+        <v>0.9612059461977044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1216</v>
@@ -1943,19 +1943,19 @@
         <v>1305273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1294235</v>
+        <v>1294308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1314815</v>
+        <v>1314422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.976551984643668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9682934412381252</v>
+        <v>0.9683486982434635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9836907034985596</v>
+        <v>0.983396485775997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2076</v>
@@ -1964,19 +1964,19 @@
         <v>2229744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2212344</v>
+        <v>2210360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2245493</v>
+        <v>2245817</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9647320130583485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9572037113163293</v>
+        <v>0.9563453548396774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9715460660081483</v>
+        <v>0.9716862199603034</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>23481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13768</v>
+        <v>13904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37842</v>
+        <v>38277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01195594847531103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007010582349616862</v>
+        <v>0.007079397358381804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0192683542683625</v>
+        <v>0.01948984753485524</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2089,19 +2089,19 @@
         <v>10167</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5141</v>
+        <v>5102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19386</v>
+        <v>19398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005794785930301756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002929828057898065</v>
+        <v>0.002907541800986691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01104845111860255</v>
+        <v>0.01105548734483028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2110,19 +2110,19 @@
         <v>33648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23413</v>
+        <v>22524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49277</v>
+        <v>49576</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009048813092871165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006296323244271608</v>
+        <v>0.006057301546433235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01325156978307476</v>
+        <v>0.01333215479878925</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1940476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1926115</v>
+        <v>1925680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1950189</v>
+        <v>1950053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.988044051524689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807316457316375</v>
+        <v>0.9805101524651448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9929894176503831</v>
+        <v>0.9929206026416182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1624</v>
@@ -2160,19 +2160,19 @@
         <v>1744425</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1735206</v>
+        <v>1735194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1749451</v>
+        <v>1749490</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9942052140696982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9889515488813976</v>
+        <v>0.9889445126551696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.997070171942102</v>
+        <v>0.9970924581990133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3462</v>
@@ -2181,19 +2181,19 @@
         <v>3684901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3669272</v>
+        <v>3668973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3695136</v>
+        <v>3696025</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9909511869071288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9867484302169253</v>
+        <v>0.9866678452012108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937036767557283</v>
+        <v>0.9939426984535668</v>
       </c>
     </row>
     <row r="9">
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4837</v>
+        <v>5457</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002092129133571945</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01054747092040076</v>
+        <v>0.01189909753276087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4889</v>
+        <v>4776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001020964750061851</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005202365194212916</v>
+        <v>0.00508223863647703</v>
       </c>
     </row>
     <row r="11">
@@ -2361,7 +2361,7 @@
         <v>457671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453794</v>
+        <v>453174</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -2370,7 +2370,7 @@
         <v>0.9979078708664281</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9894525290795992</v>
+        <v>0.9881009024672397</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>938853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>934924</v>
+        <v>935037</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>939813</v>
@@ -2391,7 +2391,7 @@
         <v>0.9989790352499381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9947976348057859</v>
+        <v>0.9949177613635229</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -2486,19 +2486,19 @@
         <v>73653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56420</v>
+        <v>57470</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93831</v>
+        <v>92268</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02153745777595736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01649806814257892</v>
+        <v>0.01680525622304477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02743765615681107</v>
+        <v>0.02698054862493425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -2507,19 +2507,19 @@
         <v>42468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30110</v>
+        <v>30983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56226</v>
+        <v>58718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0119633499503535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008482122607038912</v>
+        <v>0.008728114290792876</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01583907912911714</v>
+        <v>0.01654095518876814</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -2528,19 +2528,19 @@
         <v>116121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96535</v>
+        <v>95278</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141468</v>
+        <v>140296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01666107611473863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01385081176887605</v>
+        <v>0.01367050038874225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02029787754456867</v>
+        <v>0.02012968204389425</v>
       </c>
     </row>
     <row r="14">
@@ -2557,19 +2557,19 @@
         <v>3346129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3325951</v>
+        <v>3327514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3363362</v>
+        <v>3362312</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9784625422240426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9725623438431887</v>
+        <v>0.9730194513750657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.983501931857421</v>
+        <v>0.9831947437769551</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3251</v>
@@ -2578,19 +2578,19 @@
         <v>3507369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3493611</v>
+        <v>3491119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3519727</v>
+        <v>3518854</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9880366500496465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9841609208708828</v>
+        <v>0.983459044811232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.991517877392961</v>
+        <v>0.9912718857092071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6387</v>
@@ -2599,19 +2599,19 @@
         <v>6853498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6828151</v>
+        <v>6829323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6873084</v>
+        <v>6874341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9833389238852613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9797021224554313</v>
+        <v>0.9798703179561057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.986149188231124</v>
+        <v>0.9863294996112576</v>
       </c>
     </row>
     <row r="15">
@@ -2942,19 +2942,19 @@
         <v>34222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24900</v>
+        <v>23184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47772</v>
+        <v>47463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04536618267959962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03300856711479692</v>
+        <v>0.03073324678994851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06332958169141772</v>
+        <v>0.06291964515006067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2963,19 +2963,19 @@
         <v>24319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14458</v>
+        <v>15136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36108</v>
+        <v>35827</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02444933062361935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01453567835047264</v>
+        <v>0.01521749004237166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03630146837885637</v>
+        <v>0.03601978777628879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2984,19 +2984,19 @@
         <v>58541</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44257</v>
+        <v>44723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75057</v>
+        <v>75433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03347076987239355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02530418905935851</v>
+        <v>0.02557029405304813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04291398647419576</v>
+        <v>0.04312918290876921</v>
       </c>
     </row>
     <row r="5">
@@ -3013,19 +3013,19 @@
         <v>720125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>706575</v>
+        <v>706884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>729447</v>
+        <v>731163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9546338173204004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.936670418308582</v>
+        <v>0.9370803548499391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.966991432885203</v>
+        <v>0.9692667532100515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>871</v>
@@ -3034,19 +3034,19 @@
         <v>970341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>958552</v>
+        <v>958833</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>980202</v>
+        <v>979524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9755506693763807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9636985316211437</v>
+        <v>0.9639802122237113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9854643216495274</v>
+        <v>0.9847825099576284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1598</v>
@@ -3055,19 +3055,19 @@
         <v>1690466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1673950</v>
+        <v>1673574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1704750</v>
+        <v>1704284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9665292301276065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9570860135258042</v>
+        <v>0.9568708170912308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9746958109406415</v>
+        <v>0.9744297059469519</v>
       </c>
     </row>
     <row r="6">
@@ -3159,19 +3159,19 @@
         <v>28598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18363</v>
+        <v>19526</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40025</v>
+        <v>40721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01377275576308616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008843751068852547</v>
+        <v>0.009403847454586275</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01927625080642397</v>
+        <v>0.01961146123365433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3180,19 +3180,19 @@
         <v>17141</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10000</v>
+        <v>10096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27602</v>
+        <v>26977</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008621175377882108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005029341684285511</v>
+        <v>0.005077577669130292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01388215604502211</v>
+        <v>0.01356784921298631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -3201,19 +3201,19 @@
         <v>45739</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33006</v>
+        <v>33638</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60421</v>
+        <v>61560</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01125278495664099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008120267743426043</v>
+        <v>0.00827570149836465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01486497973691255</v>
+        <v>0.01514510464555985</v>
       </c>
     </row>
     <row r="8">
@@ -3230,19 +3230,19 @@
         <v>2047787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2036360</v>
+        <v>2035664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2058022</v>
+        <v>2056859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862272442369139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807237491935761</v>
+        <v>0.9803885387663459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9911562489311474</v>
+        <v>0.9905961525454139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1892</v>
@@ -3251,19 +3251,19 @@
         <v>1971159</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1960698</v>
+        <v>1961323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1978300</v>
+        <v>1978204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9913788246221179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9861178439549778</v>
+        <v>0.9864321507870135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9949706583157144</v>
+        <v>0.9949224223308695</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3816</v>
@@ -3272,19 +3272,19 @@
         <v>4018946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4004264</v>
+        <v>4003125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4031679</v>
+        <v>4031047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9887472150433591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9851350202630875</v>
+        <v>0.9848548953544408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.991879732256574</v>
+        <v>0.9917242985016355</v>
       </c>
     </row>
     <row r="9">
@@ -3376,19 +3376,19 @@
         <v>3661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11447</v>
+        <v>10590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006693903022873743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001644614380566335</v>
+        <v>0.001647338928866911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02093122747060045</v>
+        <v>0.01936354915561118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3397,19 +3397,19 @@
         <v>3029</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7898</v>
+        <v>8084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005515876784757198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001785042721394112</v>
+        <v>0.001783047240723702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01438158861198072</v>
+        <v>0.01472152654744362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3418,19 +3418,19 @@
         <v>6690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2755</v>
+        <v>2769</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14497</v>
+        <v>14394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00610367850989676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00251324213949019</v>
+        <v>0.002525975933741584</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01322671392588163</v>
+        <v>0.01313282128603016</v>
       </c>
     </row>
     <row r="11">
@@ -3447,19 +3447,19 @@
         <v>543225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535439</v>
+        <v>536296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545987</v>
+        <v>545985</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9933060969771262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9790687725293991</v>
+        <v>0.9806364508443871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983553856194337</v>
+        <v>0.9983526610711331</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -3468,19 +3468,19 @@
         <v>546111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541242</v>
+        <v>541056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548160</v>
+        <v>548161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9944841232152428</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9856184113880192</v>
+        <v>0.9852784734525564</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9982149572786059</v>
+        <v>0.9982169527592764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1021</v>
@@ -3489,19 +3489,19 @@
         <v>1089337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1081530</v>
+        <v>1081633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1093272</v>
+        <v>1093258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9938963214901032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9867732860741181</v>
+        <v>0.9868671787139698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9974867578605098</v>
+        <v>0.9974740240662584</v>
       </c>
     </row>
     <row r="12">
@@ -3593,19 +3593,19 @@
         <v>66480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51586</v>
+        <v>50102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82362</v>
+        <v>84190</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.019682563637521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01527278165410828</v>
+        <v>0.01483356617579561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02438458181358823</v>
+        <v>0.0249257747237109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3614,19 +3614,19 @@
         <v>44489</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31810</v>
+        <v>31802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59109</v>
+        <v>60578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01259569160209693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009006082486684847</v>
+        <v>0.009003795468903255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01673491811931649</v>
+        <v>0.01715057973087619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -3635,19 +3635,19 @@
         <v>110969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90457</v>
+        <v>93906</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132371</v>
+        <v>134228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01605990596029637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01309120040912252</v>
+        <v>0.01359043708889157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01915718505969004</v>
+        <v>0.01942596899774203</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>3311138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3295256</v>
+        <v>3293428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3326032</v>
+        <v>3327516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.980317436362479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9756154181864118</v>
+        <v>0.9750742252762891</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9847272183458917</v>
+        <v>0.9851664338242043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3286</v>
@@ -3685,19 +3685,19 @@
         <v>3487611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3472991</v>
+        <v>3471522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3500290</v>
+        <v>3500298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9874043083979031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9832650818806834</v>
+        <v>0.9828494202691241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990993917513315</v>
+        <v>0.9909962045310967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6435</v>
@@ -3706,19 +3706,19 @@
         <v>6798749</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6777347</v>
+        <v>6775490</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6819261</v>
+        <v>6815812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9839400940397036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.98084281494031</v>
+        <v>0.980574031002258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9869087995908775</v>
+        <v>0.9864095629111085</v>
       </c>
     </row>
     <row r="15">
@@ -4049,19 +4049,19 @@
         <v>50446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39516</v>
+        <v>39931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64121</v>
+        <v>64776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08734685619982477</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06842099884183418</v>
+        <v>0.06914042510021133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1110239065857212</v>
+        <v>0.1121589396147389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -4070,19 +4070,19 @@
         <v>44398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35483</v>
+        <v>36296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54528</v>
+        <v>55538</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05426333387805913</v>
+        <v>0.05426333387805914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0433666964776081</v>
+        <v>0.04436012038689235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06664375846679725</v>
+        <v>0.06787825757624776</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -4091,19 +4091,19 @@
         <v>94845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80177</v>
+        <v>80585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110973</v>
+        <v>112260</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06795288376285473</v>
+        <v>0.06795288376285472</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05744378157460873</v>
+        <v>0.05773622880544133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07950803951898067</v>
+        <v>0.08042989394569687</v>
       </c>
     </row>
     <row r="5">
@@ -4120,19 +4120,19 @@
         <v>527096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>513421</v>
+        <v>512766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538026</v>
+        <v>537611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9126531438001751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8889760934142787</v>
+        <v>0.8878410603852613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9315790011581661</v>
+        <v>0.9308595748997887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1336</v>
@@ -4141,19 +4141,19 @@
         <v>773805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>763675</v>
+        <v>762665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>782720</v>
+        <v>781907</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9457366661219408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9333562415332028</v>
+        <v>0.9321217424237523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9566333035223921</v>
+        <v>0.9556398796131077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1959</v>
@@ -4162,19 +4162,19 @@
         <v>1300900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1284772</v>
+        <v>1283485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315568</v>
+        <v>1315160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9320471162371451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9204919604810183</v>
+        <v>0.919570106054303</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9425562184253912</v>
+        <v>0.942263771194559</v>
       </c>
     </row>
     <row r="6">
@@ -4266,19 +4266,19 @@
         <v>32836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23905</v>
+        <v>22965</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45870</v>
+        <v>44825</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01473410951337217</v>
+        <v>0.01473410951337218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01072662904722409</v>
+        <v>0.01030451594039088</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02058240318684008</v>
+        <v>0.02011348302494429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4287,19 +4287,19 @@
         <v>43793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32109</v>
+        <v>32374</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59806</v>
+        <v>59778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0201842354769205</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01479924475516584</v>
+        <v>0.01492133300747389</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02756461599272</v>
+        <v>0.0275517317528765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -4308,19 +4308,19 @@
         <v>76629</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61807</v>
+        <v>60921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97513</v>
+        <v>96501</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01742265162522304</v>
+        <v>0.01742265162522305</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01405252180761257</v>
+        <v>0.01385119429367827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02217082614379561</v>
+        <v>0.02194083107764247</v>
       </c>
     </row>
     <row r="8">
@@ -4337,19 +4337,19 @@
         <v>2195764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2182730</v>
+        <v>2183775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2204695</v>
+        <v>2205635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9852658904866277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9794175968131598</v>
+        <v>0.9798865169750559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9892733709527759</v>
+        <v>0.9896954840596093</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2861</v>
@@ -4358,19 +4358,19 @@
         <v>2125862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2109849</v>
+        <v>2109877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2137546</v>
+        <v>2137281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9798157645230795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.97243538400728</v>
+        <v>0.9724482682471235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9852007552448341</v>
+        <v>0.9850786669925261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4811</v>
@@ -4379,19 +4379,19 @@
         <v>4321627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4300743</v>
+        <v>4301755</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4336449</v>
+        <v>4337335</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9825773483747768</v>
+        <v>0.9825773483747771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9778291738562042</v>
+        <v>0.9780591689223576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9859474781923873</v>
+        <v>0.9861488057063215</v>
       </c>
     </row>
     <row r="9">
@@ -4483,19 +4483,19 @@
         <v>6712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3381</v>
+        <v>3261</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11984</v>
+        <v>11851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009432339549391485</v>
+        <v>0.009432339549391483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004751405461246848</v>
+        <v>0.004582953955811404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01684117920065199</v>
+        <v>0.01665405519035407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4504,19 +4504,19 @@
         <v>7629</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4041</v>
+        <v>4237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13410</v>
+        <v>13706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01040048208578488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005509089219576631</v>
+        <v>0.005776606197366212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01828310957286823</v>
+        <v>0.01868623849679543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -4525,19 +4525,19 @@
         <v>14341</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9170</v>
+        <v>9124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22620</v>
+        <v>21763</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009923746585214841</v>
+        <v>0.009923746585214843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006345988950382771</v>
+        <v>0.006313578160241163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01565309975782317</v>
+        <v>0.01505993126281863</v>
       </c>
     </row>
     <row r="11">
@@ -4554,19 +4554,19 @@
         <v>704875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>699603</v>
+        <v>699736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>708206</v>
+        <v>708326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9905676604506085</v>
+        <v>0.9905676604506084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9831588207993487</v>
+        <v>0.9833459448096461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9952485945387531</v>
+        <v>0.9954170460441887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>990</v>
@@ -4575,19 +4575,19 @@
         <v>725857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>720076</v>
+        <v>719780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>729445</v>
+        <v>729249</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.989599517914215</v>
+        <v>0.9895995179142152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9817168904271318</v>
+        <v>0.9813137615032043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9944909107804234</v>
+        <v>0.9942233938026338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1661</v>
@@ -4596,19 +4596,19 @@
         <v>1430732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1422453</v>
+        <v>1423310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1435903</v>
+        <v>1435949</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9900762534147851</v>
+        <v>0.9900762534147852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9843469002421766</v>
+        <v>0.9849400687371813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9936540110496173</v>
+        <v>0.9936864218397587</v>
       </c>
     </row>
     <row r="12">
@@ -4700,19 +4700,19 @@
         <v>89995</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72885</v>
+        <v>73196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108869</v>
+        <v>110267</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02558322092658785</v>
+        <v>0.02558322092658786</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02071939331513125</v>
+        <v>0.02080779621003939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03094878470135728</v>
+        <v>0.0313460581553912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -4721,19 +4721,19 @@
         <v>95820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80617</v>
+        <v>80799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114848</v>
+        <v>115952</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02574872328377237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02166329248393082</v>
+        <v>0.02171237441735938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03086205553313991</v>
+        <v>0.03115865811314999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -4742,19 +4742,19 @@
         <v>185815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163780</v>
+        <v>162289</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212276</v>
+        <v>211062</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02566829967164443</v>
+        <v>0.02566829967164442</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02262446368987679</v>
+        <v>0.02241841783240628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02932360252373176</v>
+        <v>0.02915593955201985</v>
       </c>
     </row>
     <row r="14">
@@ -4771,19 +4771,19 @@
         <v>3427734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3408860</v>
+        <v>3407462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3444844</v>
+        <v>3444533</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9744167790734121</v>
+        <v>0.9744167790734124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9690512152986428</v>
+        <v>0.9686539418446088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9792806066848688</v>
+        <v>0.9791922037899607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5187</v>
@@ -4792,19 +4792,19 @@
         <v>3625525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3606497</v>
+        <v>3605393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3640728</v>
+        <v>3640546</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9742512767162277</v>
+        <v>0.9742512767162276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9691379444668601</v>
+        <v>0.9688413418868501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9783367075160693</v>
+        <v>0.9782876255826408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8431</v>
@@ -4813,19 +4813,19 @@
         <v>7053259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7026798</v>
+        <v>7028012</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7075294</v>
+        <v>7076785</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9743317003283555</v>
+        <v>0.9743317003283554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9706763974762682</v>
+        <v>0.9708440604479801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9773755363101236</v>
+        <v>0.9775815821675937</v>
       </c>
     </row>
     <row r="15">
